--- a/K-means/watermelon4.0.xlsx
+++ b/K-means/watermelon4.0.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6698A1-1903-A14A-82D3-DA2A8C930883}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="10260" yWindow="1100" windowWidth="22260" windowHeight="13780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -57,7 +65,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -65,12 +73,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -112,7 +123,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -145,9 +156,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -180,6 +208,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -355,16 +400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0.69699999999999995</v>
       </c>
@@ -372,7 +417,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>0.77400000000000002</v>
       </c>
@@ -380,7 +425,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>0.63400000000000001</v>
       </c>
@@ -388,7 +433,7 @@
         <v>0.26400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>0.60799999999999998</v>
       </c>
@@ -396,7 +441,7 @@
         <v>0.318</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>0.55600000000000005</v>
       </c>
@@ -404,7 +449,7 @@
         <v>0.215</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>0.40300000000000002</v>
       </c>
@@ -412,7 +457,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>0.48099999999999998</v>
       </c>
@@ -420,7 +465,7 @@
         <v>0.14899999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>0.437</v>
       </c>
@@ -428,7 +473,7 @@
         <v>0.21099999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>0.66600000000000004</v>
       </c>
@@ -436,7 +481,7 @@
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>0.24299999999999999</v>
       </c>
@@ -444,7 +489,7 @@
         <v>0.26700000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>0.245</v>
       </c>
@@ -452,7 +497,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>0.34300000000000003</v>
       </c>
@@ -460,7 +505,7 @@
         <v>9.9000000000000005E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>0.63900000000000001</v>
       </c>
@@ -468,7 +513,7 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>0.65700000000000003</v>
       </c>
@@ -476,7 +521,7 @@
         <v>0.19800000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>0.36</v>
       </c>
@@ -484,7 +529,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>0.59299999999999997</v>
       </c>
@@ -492,7 +537,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>0.71899999999999997</v>
       </c>
@@ -500,7 +545,7 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>0.35899999999999999</v>
       </c>
@@ -508,7 +553,7 @@
         <v>0.188</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>0.33900000000000002</v>
       </c>
@@ -516,7 +561,7 @@
         <v>0.24099999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>0.28199999999999997</v>
       </c>
@@ -524,7 +569,7 @@
         <v>0.25700000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>0.748</v>
       </c>
@@ -532,7 +577,7 @@
         <v>0.23200000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>0.71399999999999997</v>
       </c>
@@ -540,7 +585,7 @@
         <v>0.34599999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>0.48299999999999998</v>
       </c>
@@ -548,7 +593,7 @@
         <v>0.312</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>0.47799999999999998</v>
       </c>
@@ -556,7 +601,7 @@
         <v>0.437</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>0.52500000000000002</v>
       </c>
@@ -564,7 +609,7 @@
         <v>0.36899999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>0.751</v>
       </c>
@@ -572,7 +617,7 @@
         <v>0.48899999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>0.53200000000000003</v>
       </c>
@@ -580,7 +625,7 @@
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>0.47299999999999998</v>
       </c>
@@ -588,7 +633,7 @@
         <v>0.376</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>0.72499999999999998</v>
       </c>
@@ -596,12 +641,812 @@
         <v>0.44500000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>0.44600000000000001</v>
       </c>
       <c r="B30">
         <v>0.45900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <f ca="1">ROUND(RAND(),3)</f>
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="A31:B95" ca="1" si="0">ROUND(RAND(),3)</f>
+        <v>0.79200000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.125</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.0999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54300000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32300000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.224</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34699999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14399999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="B47">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="B48">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.69099999999999995</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.245</v>
+      </c>
+      <c r="B49">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="B51">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95199999999999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="B52">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="B53">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83</v>
+      </c>
+      <c r="B54">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="B55">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.746</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33100000000000002</v>
+      </c>
+      <c r="B56">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.59899999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="B57">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83799999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="B58">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="B59">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.93400000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="B60">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="B61">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.80600000000000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="B62">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92700000000000005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="B63">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.439</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.308</v>
+      </c>
+      <c r="B64">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="B65">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.86199999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="B66">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.70099999999999996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="B67">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="B68">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.84499999999999997</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.7000000000000003E-2</v>
+      </c>
+      <c r="B70">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="B71">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="B72">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.72</v>
+      </c>
+      <c r="B73">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.7E-2</v>
+      </c>
+      <c r="B74">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.11600000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.154</v>
+      </c>
+      <c r="B75">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14199999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88900000000000001</v>
+      </c>
+      <c r="B76">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="B77">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88600000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="B78">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="B79">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.83899999999999997</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="B80">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.79300000000000004</v>
+      </c>
+      <c r="B81">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.54900000000000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="B82">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.32500000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.106</v>
+      </c>
+      <c r="B83">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="B84">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.77600000000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="B85">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.182</v>
+      </c>
+      <c r="B86">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.89700000000000002</v>
+      </c>
+      <c r="B87">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="B88">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.60899999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="B89">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.67800000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.114</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="B91">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.745</v>
+      </c>
+      <c r="B92">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="B93">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.315</v>
+      </c>
+      <c r="B94">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26100000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="B95">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96">
+        <f t="shared" ref="A96:B110" ca="1" si="1">ROUND(RAND(),3)</f>
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="B96">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.51400000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.04</v>
+      </c>
+      <c r="B97">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.76600000000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ca="1" si="1"/>
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="B99">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="B100">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19600000000000001</v>
+      </c>
+      <c r="B101">
+        <f t="shared" ca="1" si="1"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="B102">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="B103">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.505</v>
+      </c>
+      <c r="B104">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="B105">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.26500000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4</v>
+      </c>
+      <c r="B106">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="B107">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="B108">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.67700000000000005</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109">
+        <f t="shared" ca="1" si="1"/>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="B109">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.13500000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.88</v>
+      </c>
+      <c r="B110">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>
@@ -612,12 +1457,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -625,12 +1470,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
